--- a/02_MasterWifoMannheim/03_Courses/Course56.xlsx
+++ b/02_MasterWifoMannheim/03_Courses/Course56.xlsx
@@ -1,37 +1,133 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD3D05905DB9B361159CBB8F471B5F901" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A18A7862-AFAF-4546-9E0E-70B051111D53}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>ACC 662 Private Equity: Due Diligence and Value Creation</t>
+  </si>
+  <si>
+    <t>A T A Tim of module</t>
+  </si>
+  <si>
+    <t>he course aims at exploring Private Equity (PE) as an alternative asset class on the rise and will equip the participants with a sound understanding of its characteristics and mechanics. fter outlining Private Equity’s role from an asset management perspective, the course will focus on PE fundamentals (strategy, economics, stakeholders) as well as on detailing the Leverage Buy-out value chain including the sourcing strategy, due diligence, portfolio value creation and exit. There will be a specific emphasis on teaching the LBO mechanics, core due diligence techniques and value creation strategies. he course will be complemented by several practical exercises, in class discussions, as well as guest lectures from professionals in the Private Equity Industry.</t>
+  </si>
+  <si>
+    <t>Learning outcomes</t>
+  </si>
+  <si>
+    <t>Participants will be able to distinguish Private Equity from other asset classes. In particular, participants understand how to assess and create value from potential investments. Overall, this course will provide participants with practical insights into Private Equity and will equip them with advanced knowledge for a potential career in the industry.</t>
+  </si>
+  <si>
+    <t>Prerequisites</t>
+  </si>
+  <si>
+    <t>Accounting and Taxation (AAT)</t>
+  </si>
+  <si>
+    <t>Benötigte Kurse</t>
+  </si>
+  <si>
+    <t>Obligatory registration</t>
+  </si>
+  <si>
+    <t>Further Information on the registration:[Website of the chair / “Student Portal”]</t>
+  </si>
+  <si>
+    <t>Courses Hours per week Self-study Lecture 2 4 Case Study Presentation 2 4</t>
+  </si>
+  <si>
+    <t>ECTS</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Form of assessment</t>
+  </si>
+  <si>
+    <t>Case study presentation (50%) and written exam (45 minutes, 50%)</t>
+  </si>
+  <si>
+    <t>Lecturer / Person in charge</t>
+  </si>
+  <si>
+    <t>Dr. Wilhelm Schmundt (Lecture and Case Studies), Prof. Dr. Jannis Bischof</t>
+  </si>
+  <si>
+    <t>Duration of module</t>
+  </si>
+  <si>
+    <t>1 term</t>
+  </si>
+  <si>
+    <t>Offering</t>
+  </si>
+  <si>
+    <t>FWS</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Program-specific educational goals</t>
+  </si>
+  <si>
+    <t>Range of application</t>
+  </si>
+  <si>
+    <t>M.Sc. Mannheim Master in Management, Mannheim Master in Management, M.Sc. Wirtschaftspädagogik, M.Sc. Wirtschaftsinformatik, Diplom BWL, LL.M., M.Sc. VWL</t>
+  </si>
+  <si>
+    <t>ACC 5|</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +142,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,197 +466,135 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="n">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="n">
+      <c r="B1" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>ACC 662 Private Equity: Due Diligence and Value Creation</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>A T A Tim of module</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>he course aims at exploring Private Equity (PE) as an alternative asset class on the rise and will equip the participants with a sound understanding of its characteristics and mechanics. fter outlining Private Equity’s role from an asset management perspective, the course will focus on PE fundamentals (strategy, economics, stakeholders) as well as on detailing the Leverage Buy-out value chain including the sourcing strategy, due diligence, portfolio value creation and exit. There will be a specific emphasis on teaching the LBO mechanics, core due diligence techniques and value creation strategies. he course will be complemented by several practical exercises, in class discussions, as well as guest lectures from professionals in the Private Equity Industry.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Learning outcomes</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Participants will be able to distinguish Private Equity from other asset classes. In particular, participants understand how to assess and create value from potential investments. Overall, this course will provide participants with practical insights into Private Equity and will equip them with advanced knowledge for a potential career in the industry.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Prerequisites</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Accounting and Taxation (AAT)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Benötigte Kurse</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ACC 5</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Obligatory registration</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Further Information on the registration:[Website of the chair / “Student Portal”]</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Courses Hours per week Self-study Lecture 2 4 Case Study Presentation 2 4</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>ECTS</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Form of assessment</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Case study presentation (50%) and written exam (45 minutes, 50%)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Lecturer / Person in charge</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Dr. Wilhelm Schmundt (Lecture and Case Studies), Prof. Dr. Jannis Bischof</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Duration of module</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1 term</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Offering</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>FWS</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Language</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>English</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Program-specific educational goals</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Range of application</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>M.Sc. Mannheim Master in Management, Mannheim Master in Management, M.Sc. Wirtschaftspädagogik, M.Sc. Wirtschaftsinformatik, Diplom BWL, LL.M., M.Sc. VWL</t>
-        </is>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
